--- a/TabelaTestes.xlsx
+++ b/TabelaTestes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PUCRS\Grad\2021-1\TestsAndConf_Travis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7767C93-AADC-4827-ADE3-9FE4F10CDF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F04D48-1A8C-4F69-9423-3DD9D090B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE0AD74D-F835-449A-9BE1-9F3A5264714D}"/>
+    <workbookView xWindow="17535" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{CE0AD74D-F835-449A-9BE1-9F3A5264714D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -45,30 +45,6 @@
     <t>Caso de Teste</t>
   </si>
   <si>
-    <t>{a},{1}</t>
-  </si>
-  <si>
-    <t>{5},{0}</t>
-  </si>
-  <si>
-    <t>{a5},{1}</t>
-  </si>
-  <si>
-    <t>{aabb},{1}</t>
-  </si>
-  <si>
-    <t>{5a},{0}</t>
-  </si>
-  <si>
-    <t>{MaisUmTeste},{0}</t>
-  </si>
-  <si>
-    <t>{$},{0}</t>
-  </si>
-  <si>
-    <t>{$&amp;!},{0}</t>
-  </si>
-  <si>
     <t>unitaryCharTest</t>
   </si>
   <si>
@@ -96,13 +72,37 @@
     <t>specialStringTest</t>
   </si>
   <si>
-    <t>{a%5s},{0}</t>
-  </si>
-  <si>
     <t>mixedStringTest</t>
   </si>
   <si>
-    <t>{Teste},{1}</t>
+    <t>{"MaisUmTeste"},{0}</t>
+  </si>
+  <si>
+    <t>{"5a"},{0}</t>
+  </si>
+  <si>
+    <t>{'0' até '9'},{0}</t>
+  </si>
+  <si>
+    <t>{"a" &amp; ('0' até '9') },{1}</t>
+  </si>
+  <si>
+    <t>{'a' até 'z' e de 'A' até 'Z'},{1}</t>
+  </si>
+  <si>
+    <t>{"A &amp; ('a' até 'z') &amp; ('A' até 'Z')"},{1}</t>
+  </si>
+  <si>
+    <t>{"Te5te9"},{1}</t>
+  </si>
+  <si>
+    <t>{Todos Caracters Especias partindo do 33 até o 126 de valores da tabela ascii},{0}</t>
+  </si>
+  <si>
+    <t>{String de tamanho três testando todos Caracters Especias partindo do 33 até o 126 valores da tabela ascii},{0}</t>
+  </si>
+  <si>
+    <t>{a&amp;5s},{0}</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,12 +183,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,14 +516,14 @@
   <dimension ref="C6:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
@@ -536,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -547,10 +553,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
@@ -558,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -569,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
@@ -580,10 +586,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
@@ -591,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
@@ -602,32 +608,32 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
@@ -635,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -654,7 +660,7 @@
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>

--- a/TabelaTestes.xlsx
+++ b/TabelaTestes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PUCRS\Grad\2021-1\TestsAndConf_Travis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F04D48-1A8C-4F69-9423-3DD9D090B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6F88BB-54AD-437C-94E8-F9F2417642D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17535" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{CE0AD74D-F835-449A-9BE1-9F3A5264714D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE0AD74D-F835-449A-9BE1-9F3A5264714D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Numero do Teste</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Nome do Teset</t>
   </si>
   <si>
-    <t>Caso de Teste</t>
-  </si>
-  <si>
     <t>unitaryCharTest</t>
   </si>
   <si>
@@ -103,6 +100,45 @@
   </si>
   <si>
     <t>{a&amp;5s},{0}</t>
+  </si>
+  <si>
+    <t>Caso de Teste([Entrada], [Saída esperada])</t>
+  </si>
+  <si>
+    <t>Classes de Equivalência Válidas</t>
+  </si>
+  <si>
+    <t>Classes de Equivalência Inválidas</t>
+  </si>
+  <si>
+    <t>Condição de Entrada</t>
+  </si>
+  <si>
+    <t>Tamanho da string</t>
+  </si>
+  <si>
+    <t>t &gt; 7</t>
+  </si>
+  <si>
+    <t>0 &lt; t &lt; 7</t>
+  </si>
+  <si>
+    <t>Primeiro caractere é uma letra</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>Resto da cadeia de caracteres</t>
+  </si>
+  <si>
+    <t>Alfanúmericos</t>
+  </si>
+  <si>
+    <t>Caracteres especiais</t>
   </si>
 </sst>
 </file>
@@ -125,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +177,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -169,12 +217,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,10 +247,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Ênfase6" xfId="3" builtinId="50"/>
     <cellStyle name="60% - Ênfase1" xfId="2" builtinId="32"/>
+    <cellStyle name="60% - Ênfase6" xfId="4" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93139A9B-6876-44A0-994E-DD72597EB3F1}">
-  <dimension ref="C6:E25"/>
+  <dimension ref="C6:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +591,9 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
@@ -534,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
@@ -542,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -553,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
@@ -564,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -575,10 +645,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
@@ -586,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
@@ -597,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
@@ -608,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,10 +700,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
@@ -641,53 +711,92 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
